--- a/medicine/Enfance/Murielle_Szac/Murielle_Szac.xlsx
+++ b/medicine/Enfance/Murielle_Szac/Murielle_Szac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Murielle Szac, née le 5 juillet 1964 à Lyon (France), est une écrivaine, journaliste, éditrice et directrice de collection française.
 </t>
@@ -511,79 +523,257 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ancienne journaliste politique au magazine L'Événement du jeudi puis rédactrice en chef du magazine Rebondir, elle devient rédactrice en chef des magazines de Bayard Presse : Popi, Tralalire et Les Belles Histoires[1] avant de créer en 2009 le département pédagogique Bayard Education, dont elle a assuré dix ans la rédaction en chef. Elle a écrit quelques essais et plusieurs romans pour la jeunesse, dont les plus célèbres sont ses quatre feuilletons[2] consacrés à la mythologie grecque en 100 épisodes. Elle dirige aussi la collection « Ceux qui ont dit non »[3],[4] aux éditions Actes Sud junior (qu'elle a créée en 2008) ainsi que les collections « Poés'idéal » (2014) et  « Sur le fil » (2015), et « Poés'histoires » (2019) aux éditions Bruno Doucey[5]. Ses romans ont souvent une trame sociale ou politique, car elle mêle étroitement engagement et écriture. Elle a choisi de tricoter ensemble les histoires de la mythologie grecque pour qu'elles puissent être partagées à voix haute à tout âge, des plus jeunes aux plus âgés[6]. Son recueil de poèmes Immenses sont leurs ailes (2021) écrit à partir de portraits d'enfants syriens réalisés par la peinte Nathalie Novi reçoit le Bologna Ragazzi Award Poetry 2022 (prix de la Foire internationale du livre de jeunesse de Bologne). Son premier roman en littérature adulte, Eleftheria paraît aux éditions Emmanuelle Collas en août 2022. Il dévoile la tragédie qui conduisit à la disparition de la communauté juive de Crète en 1944.
-Elle est la compagne de Bruno Doucey, poète et romancier avec lequel elle a fondé en 2010 une maison d’édition de poésie, les éditions Bruno Doucey[7].
-Œuvres
-Pour la jeunesse
-J'attends maman, collection Petite Poche, 2003
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ancienne journaliste politique au magazine L'Événement du jeudi puis rédactrice en chef du magazine Rebondir, elle devient rédactrice en chef des magazines de Bayard Presse : Popi, Tralalire et Les Belles Histoires avant de créer en 2009 le département pédagogique Bayard Education, dont elle a assuré dix ans la rédaction en chef. Elle a écrit quelques essais et plusieurs romans pour la jeunesse, dont les plus célèbres sont ses quatre feuilletons consacrés à la mythologie grecque en 100 épisodes. Elle dirige aussi la collection « Ceux qui ont dit non », aux éditions Actes Sud junior (qu'elle a créée en 2008) ainsi que les collections « Poés'idéal » (2014) et  « Sur le fil » (2015), et « Poés'histoires » (2019) aux éditions Bruno Doucey. Ses romans ont souvent une trame sociale ou politique, car elle mêle étroitement engagement et écriture. Elle a choisi de tricoter ensemble les histoires de la mythologie grecque pour qu'elles puissent être partagées à voix haute à tout âge, des plus jeunes aux plus âgés. Son recueil de poèmes Immenses sont leurs ailes (2021) écrit à partir de portraits d'enfants syriens réalisés par la peinte Nathalie Novi reçoit le Bologna Ragazzi Award Poetry 2022 (prix de la Foire internationale du livre de jeunesse de Bologne). Son premier roman en littérature adulte, Eleftheria paraît aux éditions Emmanuelle Collas en août 2022. Il dévoile la tragédie qui conduisit à la disparition de la communauté juive de Crète en 1944.
+Elle est la compagne de Bruno Doucey, poète et romancier avec lequel elle a fondé en 2010 une maison d’édition de poésie, les éditions Bruno Doucey.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Murielle_Szac</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Murielle_Szac</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>J'attends maman, collection Petite Poche, 2003
 Rebecca, Thierry Magnier, collection Petite Poche, 2004
 7 histoires de Lou le loup, Bayard, 2007
-La Grève[8], Seuil, Collection Karactère(s), 2008
-Un lourd silence[9], Seuil, 1999
+La Grève, Seuil, Collection Karactère(s), 2008
+Un lourd silence, Seuil, 1999
 Petit Guide de voyages au pays des histoires, publié par le Ministère de la Culture et la CNAF dans le cadre de l’opération Premières Pages.
 Berceuses et balladines jazz, livre-CD avec Ilya Green, Ceilin Poggi et Thierry Eiliez, Didier Jeunesse, 2017
 - Coup de cœur Jeune Public automne 2017 de l'Académie Charles-Cros
 La Maîtresse a pleuré trois fois, Thierry Magnier, collection Petite Poche, 2010
-Le Feuilleton d'Hermès[2] : la mythologie grecque en 100 épisodes, Bayard, 2006 - Illustrations de Jean-Manuel Duvivier
+Le Feuilleton d'Hermès : la mythologie grecque en 100 épisodes, Bayard, 2006 - Illustrations de Jean-Manuel Duvivier
 Le Feuilleton de Thésée : la mythologie grecque en 100 épisodes, Bayard, 2011- Illustrations de Rémi Saillard
 Le Feuilleton d'Ulysse : la mythologie grecque en 100 épisodes, Bayard, 2015 - Illustrations de Sébastien Thibault
 L'expulsion, Thierry Magnier, collection Petite Poche, 2017
 Le Feuilleton d'Artémis : la mythologie grecque en 100 épisodes, Bayard, 2019 - Illustrations d'Olivia Sautreuil
 Immenses sont leurs ailes, Bruno Doucey, 2021 - Illustrations de Nathalie Novi
 Le Feuilleton de Tsippora, un récit biblique en 100 épisodes, Bayard, 2023 - Illustrations de Joëlle Jolivet
-L'Odyssée d'Homère, RMN, 2023Coécrit avec Catel, illustratrice. sélection « Un livre pour les vacances » 2023[10]
-Collection « Ceux qui ont dit Non »
-Victor Hugo, Non à la peine de mort, Actes Sud Junior, 2008
+L'Odyssée d'Homère, RMN, 2023Coécrit avec Catel, illustratrice. sélection « Un livre pour les vacances » 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Murielle_Szac</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Murielle_Szac</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Collection « Ceux qui ont dit Non »</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Victor Hugo, Non à la peine de mort, Actes Sud Junior, 2008
 Émile Zola, Non à l’erreur judiciaire, Actes Sud Junior, 2011
 Non à l'individualisme, Actes Sud Junior, 2011 - Recueil de nouvelles avec Gérard Dhôtel, Bruno Doucey, Nimrod, Maria Poblete, Elsa Solal.
 Non à l’indifférence, Actes sud junior, 2013 - Recueil de nouvelles avec Gérard Dhôtel, Jessie Magana, Nimrod, et Elsa Solal.
 Non à l'intolérance, recueil de nouvelles avec Gérard Dhôtel, Bruno Doucey, Nimrod, Maria Poblete, Elsa Solal, 2015.
 Jacques Prévert, Non à l'ordre établi, Actes Sud Junior, 2017
-Joan Baez, Non à l'injustice, Actes Sud Junior, 2019
-Essais
-Maurice Titran, pédiatre, un rebelle chez les bébés, Éditions de l'Atelier, 1996
-Dominique Voynet, une vraie nature, Plon, 1998
-Romans
-Eleftheria, Éditions Emmanuelle Colas, 2022
+Joan Baez, Non à l'injustice, Actes Sud Junior, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Murielle_Szac</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Murielle_Szac</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Maurice Titran, pédiatre, un rebelle chez les bébés, Éditions de l'Atelier, 1996
+Dominique Voynet, une vraie nature, Plon, 1998</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Murielle_Szac</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Murielle_Szac</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Eleftheria, Éditions Emmanuelle Colas, 2022
 L'Odyssée des femmes, L'Iconoclaste, 2023
-Tosca, Éditions Emmanuelle Colas, 2024
-Filmographie
-Coautrice et coréalisatrice du documentaire Dominique Voynet au risque du pouvoir (60 min-1999) Avec Philippe Baron. Production: ISKRA films/Diffusion: La Sept-Arte
+Tosca, Éditions Emmanuelle Colas, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Murielle_Szac</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Murielle_Szac</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Coautrice et coréalisatrice du documentaire Dominique Voynet au risque du pouvoir (60 min-1999) Avec Philippe Baron. Production: ISKRA films/Diffusion: La Sept-Arte
 Autrice-réalisatrice du documentaire À quoi rêvons-nous ? (52 min-1997) sur l'après novembre-décembre 95 dans une famille dont le père est cheminot. Production: Point du Jour/Diffusion: La Cinquième
 Autrice-réalisatrice du film pour Atd-Quart Monde : Le quart-monde rencontre l’université (45 min-1997)
 Coautrice et coréalisatrice du documentaire Quelque chose en plus sur les enfants trisomiques. (52 min-1990) avec Françoise Davisse. Production: Méli-Mélo/Diffusion: M6, RTBF, Télé Suisse Romande</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Murielle_Szac</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Murielle_Szac</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2022 :  Prix BolognaRagazzi, catégorie spéciale Poésie[11], Foire du livre de jeunesse de Bologne  pour Immenses sont leurs ailes, illustrations de Nathalie Novi</t>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2022 :  Prix BolognaRagazzi, catégorie spéciale Poésie, Foire du livre de jeunesse de Bologne  pour Immenses sont leurs ailes, illustrations de Nathalie Novi</t>
         </is>
       </c>
     </row>
